--- a/Acidentes.xlsx
+++ b/Acidentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amanda/Desktop/SAP003-data-lovers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B40F5F7-0E11-ED48-BADE-33C554925F6A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD66B98-BA1C-DD4C-B627-CA17D6D2AA9B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19120" xr2:uid="{E5B5D7DC-FF7A-7E44-A2E8-8DFB6B65DB07}"/>
   </bookViews>
@@ -2252,7 +2252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2263,6 +2263,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2582,7 +2585,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2686,6 +2689,7 @@
       <c r="B12" t="s">
         <v>91</v>
       </c>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
